--- a/£JOUL.xlsx
+++ b/£JOUL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D64B4-8BF9-4C9F-8002-39976AA6C5CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD721FF3-2080-954D-AA4F-7CD2A4878504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="10275" activeTab="1" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>£JOUL</t>
   </si>
@@ -274,16 +284,41 @@
     <t>Book Value per Share</t>
   </si>
   <si>
-    <t>Invento</t>
+    <t>Inventory Y/Y</t>
+  </si>
+  <si>
+    <t>Inventory H/H</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>EV/S</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joule's open new £20m headquarters in Market Harborough </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -491,19 +526,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -531,30 +557,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -566,12 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -596,12 +596,64 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,8 +750,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -714,8 +766,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="9525"/>
-          <a:ext cx="0" cy="8153400"/>
+          <a:off x="9039225" y="9525"/>
+          <a:ext cx="0" cy="14481175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -748,8 +800,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -764,8 +816,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11963400" y="0"/>
-          <a:ext cx="0" cy="8153400"/>
+          <a:off x="14627225" y="0"/>
+          <a:ext cx="0" cy="14592300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1091,682 +1143,714 @@
   <dimension ref="A2:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="G5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="49"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
-        <v>112.09</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="G7" s="24">
+      <c r="C7" s="8">
+        <f>'Financial Model'!K16</f>
+        <v>110.3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="19">
         <v>44879</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>10.334698000000001</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+        <v>10.16966</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="8">
+        <f>'Financial Model'!K68</f>
+        <v>19.350999999999999</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="C10" s="8">
+        <f>'Financial Model'!K69</f>
+        <v>25.856000000000002</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+        <v>-6.5050000000000026</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>10.334698000000001</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G13" s="19"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G14" s="19"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+        <v>16.674660000000003</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="G13" s="16"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="G14" s="16"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B15" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="D16" s="42"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="D17" s="42"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="15"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G20" s="19"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G21" s="19"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="15"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="D19" s="44"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="G20" s="16"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="G21" s="16"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B22" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="15"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="G22" s="57">
+        <v>44508</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+      <c r="D23" s="42"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="41">
         <v>1989</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="15"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="15"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="19" t="s">
+      <c r="D24" s="42"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="15"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="15"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+      <c r="C26" s="59">
+        <f>'Financial Model'!K35</f>
+        <v>61.878</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="15"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="s">
+      <c r="C28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="56">
+        <v>44600</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="15"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G30" s="19"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="15"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G31" s="19"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="15"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="D29" s="46"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="G30" s="16"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="G31" s="16"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B32" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="15"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="15"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="15"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="15"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="15"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B33" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="53">
+        <f>'Financial Model'!K76</f>
+        <v>0.20742534761796225</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B34" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B36" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B37" s="17"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:D29"/>
@@ -1782,240 +1866,246 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5421A33A-B86C-4727-9FDA-EA3E30BFBF6A}"/>
+    <hyperlink ref="H22" r:id="rId2" xr:uid="{30AC97B8-6A64-A74C-90DA-59D3198B2670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A0F92-CF5D-4546-9777-39819DEC72FB}">
-  <dimension ref="B1:U69"/>
+  <dimension ref="B1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62:I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="46"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="46"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="33"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="9.1640625" style="33"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I1" s="32" t="s">
+    <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="I2" s="39">
+    <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="22"/>
+      <c r="I2" s="26">
         <v>44072</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="39">
+      <c r="J2" s="31"/>
+      <c r="K2" s="26">
         <v>44437</v>
       </c>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="2:21" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="38">
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="25">
         <v>44600</v>
       </c>
-      <c r="L3" s="44"/>
-    </row>
-    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="28">
         <v>94.451999999999998</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="41">
+      <c r="J4" s="32"/>
+      <c r="K4" s="28">
         <v>127.871</v>
       </c>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="29">
         <v>47.005000000000003</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="29">
         <v>63.484000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="28">
         <f>I4-I5</f>
         <v>47.446999999999996</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="41">
+      <c r="J6" s="32"/>
+      <c r="K6" s="28">
         <f>K4-K5</f>
         <v>64.387</v>
       </c>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="29">
         <v>44.530999999999999</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="29">
         <v>60.674999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="29">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="29">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="29">
         <f>I7+I8</f>
         <v>45.234000000000002</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="29">
         <f>K7+K8</f>
         <v>61.070999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="28">
         <f>I6-I9</f>
         <v>2.2129999999999939</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="41">
+      <c r="J10" s="32"/>
+      <c r="K10" s="28">
         <f>K6-K9</f>
         <v>3.3160000000000025</v>
       </c>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="29">
         <v>0.88500000000000001</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="29">
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="29">
         <f>I10-I11</f>
         <v>1.3279999999999939</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="29">
         <f>K10-K11</f>
         <v>2.5500000000000025</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="29">
         <v>0.17699999999999999</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="29">
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="28">
         <f>I12-I13</f>
         <v>1.1509999999999938</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="41">
+      <c r="J14" s="32"/>
+      <c r="K14" s="28">
         <f>K12-K13</f>
         <v>2.2720000000000025</v>
       </c>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="35">
         <f>I14/I16</f>
         <v>1.1196498054474648E-2</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="48">
+      <c r="J15" s="36"/>
+      <c r="K15" s="35">
         <f>K14/K16</f>
         <v>2.0598368087035381E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2026,343 +2116,575 @@
         <v>110.3</v>
       </c>
     </row>
-    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="47">
+      <c r="J18" s="32"/>
+      <c r="K18" s="34">
         <f>K4/I4-1</f>
         <v>0.35381992969974174</v>
       </c>
-      <c r="L18" s="45"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="31" t="s">
+      <c r="Q19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="31" t="s">
+      <c r="S19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="31" t="s">
+      <c r="T19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="31" t="s">
+      <c r="U19" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="37">
         <f>I6/I4</f>
         <v>0.50233981281497475</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="37">
         <f>K6/K4</f>
         <v>0.50353090223741115</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="37">
         <f>I10/I4</f>
         <v>2.3429890314657115E-2</v>
       </c>
-      <c r="K22" s="50">
+      <c r="K22" s="37">
         <f>K10/K4</f>
         <v>2.5932384981739429E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="37">
         <f>I14/I4</f>
         <v>1.2186083936814401E-2</v>
       </c>
-      <c r="K23" s="50">
+      <c r="K23" s="37">
         <f>K14/K4</f>
         <v>1.7767906718489747E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="37">
         <f>I13/I12</f>
         <v>0.13328313253012108</v>
       </c>
-      <c r="K24" s="50">
+      <c r="K24" s="37">
         <f>K13/K12</f>
         <v>0.10901960784313716</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="51" t="s">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B28" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K29" s="42">
+      <c r="I29" s="29">
+        <v>18.748000000000001</v>
+      </c>
+      <c r="K29" s="29">
         <f>5.531+25.598</f>
         <v>31.128999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="42">
+      <c r="I30" s="29">
+        <v>23.667999999999999</v>
+      </c>
+      <c r="K30" s="29">
         <v>29.561</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K31" s="42">
+      <c r="I31" s="29">
+        <v>32.344000000000001</v>
+      </c>
+      <c r="K31" s="29">
         <v>28.315000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="45"/>
-      <c r="K32" s="41">
+      <c r="I32" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="28">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="42">
+      <c r="I33" s="29">
+        <v>2.831</v>
+      </c>
+      <c r="K33" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="42">
+      <c r="I34" s="29">
+        <f>SUM(I29:I33)</f>
+        <v>77.61099999999999</v>
+      </c>
+      <c r="K34" s="29">
         <f>SUM(K29:K33)</f>
         <v>89.097999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="41">
+      <c r="I35" s="28">
+        <v>42.704000000000001</v>
+      </c>
+      <c r="J35" s="32"/>
+      <c r="K35" s="28">
         <v>61.878</v>
       </c>
-      <c r="L35" s="45"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="42">
+      <c r="I36" s="29">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="K36" s="29">
         <v>1.591</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="42">
+      <c r="I37" s="29">
+        <v>13.471</v>
+      </c>
+      <c r="K37" s="29">
         <v>21.268000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="41">
+      <c r="I38" s="28">
+        <v>28.577000000000002</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="K38" s="28">
         <v>17.032</v>
       </c>
-      <c r="L38" s="45"/>
-    </row>
-    <row r="39" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="41">
+      <c r="I39" s="28">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="28">
         <v>2.226</v>
       </c>
-      <c r="L39" s="45"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="42">
+      <c r="I40" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K40" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="42">
+      <c r="I41" s="29">
+        <f>SUM(I35:I40)+I34</f>
+        <v>164.108</v>
+      </c>
+      <c r="K41" s="29">
         <f>SUM(K35:K40)+K34</f>
         <v>193.09299999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="1">
+      <c r="I43" s="29">
+        <v>56.731000000000002</v>
+      </c>
+      <c r="K43" s="29">
         <v>69.251000000000005</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K44" s="1">
+      <c r="I44" s="29">
+        <v>10.484999999999999</v>
+      </c>
+      <c r="K44" s="29">
         <v>9.7539999999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K45" s="1">
+      <c r="I45" s="29">
+        <v>0.998</v>
+      </c>
+      <c r="K45" s="29">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J46" s="45"/>
-      <c r="L46" s="45"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I46" s="28">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="J46" s="32"/>
+      <c r="K46" s="28">
+        <v>14.148999999999999</v>
+      </c>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I47" s="29">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="K47" s="29">
+        <v>2.9020000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I48" s="29">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="K48" s="29">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+      <c r="K49" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="45"/>
-      <c r="L50" s="45"/>
-    </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="28">
+        <v>0</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="28">
+        <v>0</v>
+      </c>
+      <c r="L50" s="32"/>
+    </row>
+    <row r="51" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J51" s="45"/>
-      <c r="L51" s="45"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I51" s="28">
+        <v>0</v>
+      </c>
+      <c r="J51" s="32"/>
+      <c r="K51" s="28">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="L51" s="32"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="29">
+        <f>SUM(I43:I51)</f>
+        <v>78.843000000000018</v>
+      </c>
+      <c r="K52" s="29">
+        <f>SUM(K43:K51)</f>
+        <v>103.30900000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J53" s="45"/>
-      <c r="L53" s="45"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I53" s="28">
+        <v>8.5329999999999995</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="K53" s="28">
+        <v>8.2520000000000007</v>
+      </c>
+      <c r="L53" s="32"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I54" s="29">
+        <v>34.46</v>
+      </c>
+      <c r="K54" s="29">
+        <v>28.396999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I55" s="29">
+        <v>0</v>
+      </c>
+      <c r="K55" s="29">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I56" s="29">
+        <v>1.228</v>
+      </c>
+      <c r="K56" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I57" s="29">
+        <f>I52+SUM(I53:I56)</f>
+        <v>123.06400000000002</v>
+      </c>
+      <c r="K57" s="29">
+        <f>K52+SUM(K53:K56)</f>
+        <v>140.44900000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I59" s="29">
+        <v>41.043999999999997</v>
+      </c>
+      <c r="K59" s="29">
+        <v>52.643999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I60" s="29">
+        <f>I59+I57</f>
+        <v>164.108</v>
+      </c>
+      <c r="K60" s="29">
+        <f>K59+K57</f>
+        <v>193.09300000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I62" s="29">
+        <f>I41-I57</f>
+        <v>41.043999999999983</v>
+      </c>
+      <c r="K62" s="29">
+        <f>K41-K57</f>
+        <v>52.643999999999977</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="I63" s="1">
+        <f>I62/I16</f>
+        <v>0.39926070038910488</v>
+      </c>
+      <c r="K63" s="1">
+        <f>K62/K16</f>
+        <v>0.47728014505893002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="52" t="s">
+      <c r="J65" s="32"/>
+      <c r="K65" s="34">
+        <f>K35/I35-1</f>
+        <v>0.44899775196702874</v>
+      </c>
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J67" s="53"/>
-      <c r="L67" s="53"/>
-    </row>
-    <row r="68" spans="2:12" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="52" t="s">
+      <c r="J68" s="40"/>
+      <c r="K68" s="50">
+        <f>K39+K38+K32</f>
+        <v>19.350999999999999</v>
+      </c>
+      <c r="L68" s="40"/>
+    </row>
+    <row r="69" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J68" s="53"/>
-      <c r="L68" s="53"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="J69" s="40"/>
+      <c r="K69" s="50">
+        <f>K46+K50+K51+K53</f>
+        <v>25.856000000000002</v>
+      </c>
+      <c r="L69" s="40"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="K70" s="29">
+        <f>K68-K69</f>
+        <v>-6.5050000000000026</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72" s="52">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" s="29">
+        <f>K72*K16</f>
+        <v>10.919700000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="29">
+        <f>K73-K70</f>
+        <v>17.424700000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K76" s="51">
+        <f>K72/K63</f>
+        <v>0.20742534761796225</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/£JOUL.xlsx
+++ b/£JOUL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD721FF3-2080-954D-AA4F-7CD2A4878504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2412AC-27D4-BD4F-ADF2-B26FE7789A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>£JOUL</t>
   </si>
@@ -309,16 +309,48 @@
   </si>
   <si>
     <t xml:space="preserve">Joule's open new £20m headquarters in Market Harborough </t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>H220</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>H119</t>
+  </si>
+  <si>
+    <t>H118</t>
+  </si>
+  <si>
+    <t>H218</t>
+  </si>
+  <si>
+    <t>H219</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>Inventory/Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="170" formatCode="0.\1\x"/>
+    <numFmt numFmtId="171" formatCode="0.00\x"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -526,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,42 +634,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,6 +651,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +812,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -800,7 +862,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1142,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570C7E1B-ADE6-46D7-B76E-B92B72B7FE98}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1163,26 +1225,26 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="G5" s="47" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="G5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -1211,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="8">
-        <f>'Financial Model'!K16</f>
+        <f>'Financial Model'!K17</f>
         <v>110.3</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1263,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="8">
-        <f>'Financial Model'!K68</f>
+        <f>'Financial Model'!K69</f>
         <v>19.350999999999999</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1288,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8">
-        <f>'Financial Model'!K69</f>
+        <f>'Financial Model'!K70</f>
         <v>25.856000000000002</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1387,11 +1449,11 @@
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
       <c r="G15" s="16"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1410,10 +1472,10 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="51"/>
       <c r="G16" s="16"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1432,10 +1494,10 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="51"/>
       <c r="G17" s="16"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1454,8 +1516,8 @@
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="G18" s="16"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1477,10 +1539,10 @@
       <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="58"/>
       <c r="G19" s="16"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1526,15 +1588,15 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="G22" s="57">
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="G22" s="46">
         <v>44508</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="47" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="11"/>
@@ -1553,10 +1615,10 @@
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="51"/>
       <c r="G23" s="16"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1575,10 +1637,10 @@
       <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="50">
         <v>1989</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="51"/>
       <c r="G24" s="16"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1595,8 +1657,8 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B25" s="16"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
       <c r="G25" s="16"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1615,11 +1677,11 @@
       <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="59">
-        <f>'Financial Model'!K35</f>
+      <c r="C26" s="48">
+        <f>'Financial Model'!K36</f>
         <v>61.878</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="49"/>
       <c r="G26" s="16"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1636,8 +1698,8 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
       <c r="G27" s="16"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1656,10 +1718,10 @@
       <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="45">
         <v>44600</v>
       </c>
       <c r="G28" s="16"/>
@@ -1680,10 +1742,10 @@
       <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="53"/>
       <c r="G29" s="16"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1729,11 +1791,11 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
       <c r="G32" s="16"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1752,11 +1814,11 @@
       <c r="B33" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="53">
-        <f>'Financial Model'!K76</f>
+      <c r="C33" s="59">
+        <f>'Financial Model'!K77</f>
         <v>0.20742534761796225</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="60"/>
       <c r="G33" s="16"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1775,8 +1837,11 @@
       <c r="B34" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="67">
+        <f>C8/SUM('Financial Model'!J4:K4)</f>
+        <v>4.3754399249653658E-2</v>
+      </c>
+      <c r="D34" s="68"/>
       <c r="G34" s="16"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1795,8 +1860,11 @@
       <c r="B35" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
+      <c r="C35" s="59">
+        <f>C12/SUM('Financial Model'!J4:K4)</f>
+        <v>7.1741801691721258E-2</v>
+      </c>
+      <c r="D35" s="60"/>
       <c r="G35" s="16"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -1815,8 +1883,11 @@
       <c r="B36" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
+      <c r="C36" s="65">
+        <f>C12/SUM('Financial Model'!J15:K15)</f>
+        <v>8.2793743793445529</v>
+      </c>
+      <c r="D36" s="66"/>
       <c r="G36" s="16"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -1832,9 +1903,14 @@
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="73">
+        <f>C6/SUM('Financial Model'!J16:K16)</f>
+        <v>5.0560966752336345</v>
+      </c>
+      <c r="D37" s="74"/>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1851,6 +1927,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:D29"/>
@@ -1866,11 +1947,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5421A33A-B86C-4727-9FDA-EA3E30BFBF6A}"/>
@@ -1884,20 +1960,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A0F92-CF5D-4546-9777-39819DEC72FB}">
-  <dimension ref="B1:U79"/>
+  <dimension ref="B1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62:I63"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="J16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="33"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="33"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="33"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
     <col min="10" max="10" width="9.1640625" style="33"/>
     <col min="11" max="11" width="9.1640625" style="1"/>
     <col min="12" max="12" width="9.1640625" style="33"/>
@@ -1905,6 +1987,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="I1" s="21" t="s">
         <v>45</v>
       </c>
@@ -1917,13 +2017,16 @@
       <c r="L1" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="P1" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="Q1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="24" t="s">
         <v>52</v>
       </c>
       <c r="T1" s="21" t="s">
@@ -1935,35 +2038,79 @@
     </row>
     <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="22"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="26">
+        <v>43793</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="I2" s="26">
         <v>44072</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="69">
+        <f>S2</f>
+        <v>44346</v>
+      </c>
       <c r="K2" s="26">
         <v>44437</v>
       </c>
       <c r="L2" s="31"/>
+      <c r="R2" s="26">
+        <v>43982</v>
+      </c>
+      <c r="S2" s="26">
+        <v>44346</v>
+      </c>
     </row>
     <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="22"/>
-      <c r="J3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="J3" s="70">
+        <f>S3</f>
+        <v>44411</v>
+      </c>
       <c r="K3" s="25">
         <v>44600</v>
       </c>
       <c r="L3" s="31"/>
+      <c r="S3" s="25">
+        <v>44411</v>
+      </c>
     </row>
     <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="2">
+        <v>111.6</v>
+      </c>
+      <c r="H4" s="61">
+        <f>R4-G4</f>
+        <v>79.207999999999998</v>
+      </c>
       <c r="I4" s="28">
         <v>94.451999999999998</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="61">
+        <f>S4-I4</f>
+        <v>104.55500000000001</v>
+      </c>
       <c r="K4" s="28">
         <v>127.871</v>
       </c>
       <c r="L4" s="32"/>
+      <c r="R4" s="28">
+        <v>190.80799999999999</v>
+      </c>
+      <c r="S4" s="28">
+        <v>199.00700000000001</v>
+      </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -1972,24 +2119,48 @@
       <c r="I5" s="29">
         <v>47.005000000000003</v>
       </c>
+      <c r="J5" s="62">
+        <f>S5-I5</f>
+        <v>54.499999999999993</v>
+      </c>
       <c r="K5" s="29">
         <v>63.484000000000002</v>
+      </c>
+      <c r="R5" s="29">
+        <v>93.997</v>
+      </c>
+      <c r="S5" s="29">
+        <v>101.505</v>
       </c>
     </row>
     <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="28">
         <f>I4-I5</f>
         <v>47.446999999999996</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="61">
+        <f>J4-J5</f>
+        <v>50.055000000000014</v>
+      </c>
       <c r="K6" s="28">
         <f>K4-K5</f>
         <v>64.387</v>
       </c>
       <c r="L6" s="32"/>
+      <c r="R6" s="28">
+        <f>R4-R5</f>
+        <v>96.810999999999993</v>
+      </c>
+      <c r="S6" s="28">
+        <f>S4-S5</f>
+        <v>97.50200000000001</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
@@ -1998,8 +2169,18 @@
       <c r="I7" s="29">
         <v>44.530999999999999</v>
       </c>
+      <c r="J7" s="62">
+        <f t="shared" ref="J7:J9" si="0">S7-I7</f>
+        <v>43.595000000000006</v>
+      </c>
       <c r="K7" s="29">
         <v>60.674999999999997</v>
+      </c>
+      <c r="R7" s="29">
+        <v>99.272999999999996</v>
+      </c>
+      <c r="S7" s="29">
+        <v>88.126000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.15">
@@ -2009,689 +2190,1407 @@
       <c r="I8" s="29">
         <v>0.70299999999999996</v>
       </c>
+      <c r="J8" s="62">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
       <c r="K8" s="29">
         <v>0.39600000000000002</v>
       </c>
+      <c r="R8" s="29">
+        <v>-0.371</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1.653</v>
+      </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="62">
+        <f t="shared" si="0"/>
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="R9" s="29">
+        <v>20.95</v>
+      </c>
+      <c r="S9" s="29">
+        <v>4.1619999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="29">
-        <f>I7+I8</f>
+      <c r="I10" s="29">
+        <f>I7+I8+I9</f>
         <v>45.234000000000002</v>
       </c>
-      <c r="K9" s="29">
-        <f>K7+K8</f>
+      <c r="J10" s="62">
+        <f>J7+J8+J9</f>
+        <v>48.707000000000008</v>
+      </c>
+      <c r="K10" s="29">
+        <f>K7+K8+K9</f>
         <v>61.070999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+      <c r="R10" s="29">
+        <f>R7+R8+R9</f>
+        <v>119.852</v>
+      </c>
+      <c r="S10" s="29">
+        <f>S7+S8+S9</f>
+        <v>93.941000000000017</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="28">
-        <f>I6-I9</f>
+      <c r="D11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="28">
+        <f>I6-I10</f>
         <v>2.2129999999999939</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="28">
-        <f>K6-K9</f>
+      <c r="J11" s="61">
+        <f>J6-J10</f>
+        <v>1.3480000000000061</v>
+      </c>
+      <c r="K11" s="28">
+        <f>K6-K10</f>
         <v>3.3160000000000025</v>
       </c>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="29">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="K11" s="29">
-        <v>0.76600000000000001</v>
+      <c r="L11" s="32"/>
+      <c r="R11" s="28">
+        <f>R6-R10</f>
+        <v>-23.041000000000011</v>
+      </c>
+      <c r="S11" s="28">
+        <f>S6-S10</f>
+        <v>3.5609999999999928</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="29">
-        <f>I10-I11</f>
-        <v>1.3279999999999939</v>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="J12" s="62">
+        <f t="shared" ref="J12" si="1">S12-I12</f>
+        <v>0.69799999999999995</v>
       </c>
       <c r="K12" s="29">
-        <f>K10-K11</f>
-        <v>2.5500000000000025</v>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="R12" s="29">
+        <v>1.774</v>
+      </c>
+      <c r="S12" s="29">
+        <v>1.583</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="29">
+        <f>I11-I12</f>
+        <v>1.3279999999999939</v>
+      </c>
+      <c r="J13" s="62">
+        <f>J11-J12</f>
+        <v>0.65000000000000613</v>
+      </c>
+      <c r="K13" s="29">
+        <f>K11-K12</f>
+        <v>2.5500000000000025</v>
+      </c>
+      <c r="R13" s="29">
+        <f>R11-R12</f>
+        <v>-24.815000000000012</v>
+      </c>
+      <c r="S13" s="29">
+        <f>S11-S12</f>
+        <v>1.9779999999999929</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I14" s="29">
         <v>0.17699999999999999</v>
       </c>
-      <c r="K13" s="29">
+      <c r="J14" s="62">
+        <f t="shared" ref="J14" si="2">S14-I14</f>
+        <v>0.90799999999999992</v>
+      </c>
+      <c r="K14" s="29">
         <v>0.27800000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+      <c r="R14" s="29">
+        <v>-4.5389999999999997</v>
+      </c>
+      <c r="S14" s="29">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="28">
-        <f>I12-I13</f>
+      <c r="D15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="28">
+        <f>I13-I14</f>
         <v>1.1509999999999938</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="28">
-        <f>K12-K13</f>
+      <c r="J15" s="61">
+        <f>J13-J14</f>
+        <v>-0.25799999999999379</v>
+      </c>
+      <c r="K15" s="28">
+        <f>K13-K14</f>
         <v>2.2720000000000025</v>
       </c>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="35">
-        <f>I14/I16</f>
-        <v>1.1196498054474648E-2</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="35">
-        <f>K14/K16</f>
-        <v>2.0598368087035381E-2</v>
+      <c r="L15" s="32"/>
+      <c r="R15" s="28">
+        <f>R13-R14</f>
+        <v>-20.27600000000001</v>
+      </c>
+      <c r="S15" s="28">
+        <f>S13-S14</f>
+        <v>0.89299999999999291</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="35">
+        <f>I15/I17</f>
+        <v>1.1196498054474648E-2</v>
+      </c>
+      <c r="J16" s="36">
+        <f>J15/J17</f>
+        <v>-2.3629572706985696E-3</v>
+      </c>
+      <c r="K16" s="35">
+        <f>K15/K17</f>
+        <v>2.0598368087035381E-2</v>
+      </c>
+      <c r="R16" s="35">
+        <f>R15/R17</f>
+        <v>-0.21609514265418112</v>
+      </c>
+      <c r="S16" s="35">
+        <f>S15/S17</f>
+        <v>8.1787629563327777E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>102.8</v>
       </c>
-      <c r="K16" s="1">
+      <c r="J17" s="62">
+        <f>S17</f>
+        <v>109.185216</v>
+      </c>
+      <c r="K17" s="1">
         <v>110.3</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
+      <c r="R17" s="29">
+        <v>93.829041000000004</v>
+      </c>
+      <c r="S17" s="29">
+        <v>109.185216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="34">
+      <c r="D19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="34">
+        <f>I4/G4-1</f>
+        <v>-0.15365591397849465</v>
+      </c>
+      <c r="J19" s="64">
+        <f>J4/H4-1</f>
+        <v>0.32000555499444516</v>
+      </c>
+      <c r="K19" s="34">
         <f>K4/I4-1</f>
         <v>0.35381992969974174</v>
       </c>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
+      <c r="L19" s="32"/>
+      <c r="S19" s="34">
+        <f>S4/R4-1</f>
+        <v>4.2969896440400834E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="H20" s="63">
+        <f>H4/G4-1</f>
+        <v>-0.29025089605734766</v>
+      </c>
+      <c r="I20" s="37">
+        <f>I4/H4-1</f>
+        <v>0.19245530754469242</v>
+      </c>
+      <c r="J20" s="63">
+        <f>J4/I4-1</f>
+        <v>0.10696438402574859</v>
+      </c>
+      <c r="K20" s="37">
+        <f>K4/J4-1</f>
+        <v>0.22300224762086929</v>
+      </c>
+      <c r="Q20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="S20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="U20" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I22" s="37">
         <f>I6/I4</f>
         <v>0.50233981281497475</v>
       </c>
-      <c r="K21" s="37">
+      <c r="J22" s="63">
+        <f t="shared" ref="J22" si="3">J6/J4</f>
+        <v>0.47874324518196176</v>
+      </c>
+      <c r="K22" s="37">
         <f>K6/K4</f>
         <v>0.50353090223741115</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="37">
-        <f>I10/I4</f>
-        <v>2.3429890314657115E-2</v>
-      </c>
-      <c r="K22" s="37">
-        <f>K10/K4</f>
-        <v>2.5932384981739429E-2</v>
+      <c r="R22" s="37">
+        <f t="shared" ref="R22:S22" si="4">R6/R4</f>
+        <v>0.50737390465808563</v>
+      </c>
+      <c r="S22" s="37">
+        <f t="shared" si="4"/>
+        <v>0.48994256483440285</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="37">
-        <f>I14/I4</f>
-        <v>1.2186083936814401E-2</v>
+        <f>I11/I4</f>
+        <v>2.3429890314657115E-2</v>
+      </c>
+      <c r="J23" s="63">
+        <f t="shared" ref="J23" si="5">J11/J4</f>
+        <v>1.2892735880637043E-2</v>
       </c>
       <c r="K23" s="37">
-        <f>K14/K4</f>
-        <v>1.7767906718489747E-2</v>
+        <f>K11/K4</f>
+        <v>2.5932384981739429E-2</v>
+      </c>
+      <c r="R23" s="37">
+        <f t="shared" ref="R23:S23" si="6">R11/R4</f>
+        <v>-0.12075489497295717</v>
+      </c>
+      <c r="S23" s="37">
+        <f t="shared" si="6"/>
+        <v>1.789384293014815E-2</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="37">
+        <f>I15/I4</f>
+        <v>1.2186083936814401E-2</v>
+      </c>
+      <c r="J24" s="63">
+        <f t="shared" ref="J24" si="7">J15/J4</f>
+        <v>-2.4676007842761587E-3</v>
+      </c>
+      <c r="K24" s="37">
+        <f>K15/K4</f>
+        <v>1.7767906718489747E-2</v>
+      </c>
+      <c r="R24" s="37">
+        <f t="shared" ref="R24:S24" si="8">R15/R4</f>
+        <v>-0.10626388830657002</v>
+      </c>
+      <c r="S24" s="37">
+        <f t="shared" si="8"/>
+        <v>4.4872793419326604E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="37">
-        <f>I13/I12</f>
+      <c r="I25" s="37">
+        <f>I14/I13</f>
         <v>0.13328313253012108</v>
       </c>
-      <c r="K24" s="37">
-        <f>K13/K12</f>
+      <c r="J25" s="63">
+        <f t="shared" ref="J25" si="9">J14/J13</f>
+        <v>1.3969230769230636</v>
+      </c>
+      <c r="K25" s="37">
+        <f>K14/K13</f>
         <v>0.10901960784313716</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B28" s="38" t="s">
+      <c r="R25" s="37">
+        <f t="shared" ref="R25:S25" si="10">R14/R13</f>
+        <v>0.18291356034656447</v>
+      </c>
+      <c r="S25" s="37">
+        <f t="shared" si="10"/>
+        <v>0.54853387259858644</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B29" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I30" s="29">
         <v>18.748000000000001</v>
       </c>
-      <c r="K29" s="29">
+      <c r="J30" s="62">
+        <f>S30</f>
+        <v>31.096999999999998</v>
+      </c>
+      <c r="K30" s="29">
         <f>5.531+25.598</f>
         <v>31.128999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="29">
-        <v>23.667999999999999</v>
-      </c>
-      <c r="K30" s="29">
-        <v>29.561</v>
+      <c r="R30" s="29">
+        <v>20.507000000000001</v>
+      </c>
+      <c r="S30" s="29">
+        <f>5.531+25.566</f>
+        <v>31.096999999999998</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="29">
+        <v>23.667999999999999</v>
+      </c>
+      <c r="J31" s="62">
+        <f t="shared" ref="J31:J50" si="11">S31</f>
+        <v>27.736999999999998</v>
+      </c>
+      <c r="K31" s="29">
+        <v>29.561</v>
+      </c>
+      <c r="R31" s="29">
+        <v>20.547000000000001</v>
+      </c>
+      <c r="S31" s="29">
+        <v>27.736999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I32" s="29">
         <v>32.344000000000001</v>
       </c>
-      <c r="K31" s="29">
+      <c r="J32" s="62">
+        <f t="shared" si="11"/>
+        <v>28.286999999999999</v>
+      </c>
+      <c r="K32" s="29">
         <v>28.315000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
+      <c r="R32" s="29">
+        <v>32.523000000000003</v>
+      </c>
+      <c r="S32" s="29">
+        <v>28.286999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="28">
+      <c r="D33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="28">
         <v>0.02</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="28">
+      <c r="J33" s="61">
+        <f>S33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="28">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="L32" s="32"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="1" t="s">
+      <c r="L33" s="32"/>
+      <c r="R33" s="28">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="S33" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I34" s="29">
         <v>2.831</v>
       </c>
-      <c r="K33" s="29">
+      <c r="J34" s="62">
+        <f t="shared" si="11"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K34" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
+      <c r="R34" s="29">
+        <f>2.099+3.034</f>
+        <v>5.133</v>
+      </c>
+      <c r="S34" s="29">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="29">
-        <f>SUM(I29:I33)</f>
+      <c r="I35" s="29">
+        <f>SUM(I30:I34)</f>
         <v>77.61099999999999</v>
       </c>
-      <c r="K34" s="29">
-        <f>SUM(K29:K33)</f>
+      <c r="J35" s="62">
+        <f t="shared" si="11"/>
+        <v>88.028999999999996</v>
+      </c>
+      <c r="K35" s="29">
+        <f>SUM(K30:K34)</f>
         <v>89.097999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
+      <c r="R35" s="29">
+        <f>SUM(R30:R34)</f>
+        <v>79.092999999999989</v>
+      </c>
+      <c r="S35" s="29">
+        <f>SUM(S30:S34)</f>
+        <v>88.028999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="28">
+      <c r="D36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="28">
         <v>42.704000000000001</v>
       </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="28">
+      <c r="J36" s="61">
+        <f>S36</f>
+        <v>46.624000000000002</v>
+      </c>
+      <c r="K36" s="28">
         <v>61.878</v>
       </c>
-      <c r="L35" s="32"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
+      <c r="L36" s="32"/>
+      <c r="R36" s="28">
+        <v>32.938000000000002</v>
+      </c>
+      <c r="S36" s="28">
+        <v>46.624000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I37" s="29">
         <v>1.6140000000000001</v>
       </c>
-      <c r="K36" s="29">
+      <c r="J37" s="62">
+        <f t="shared" si="11"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K37" s="29">
         <v>1.591</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
+      <c r="R37" s="29">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="S37" s="29">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I38" s="29">
         <v>13.471</v>
       </c>
-      <c r="K37" s="29">
+      <c r="J38" s="62">
+        <f t="shared" si="11"/>
+        <v>14.996</v>
+      </c>
+      <c r="K38" s="29">
         <v>21.268000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
+      <c r="R38" s="29">
+        <v>9.2260000000000009</v>
+      </c>
+      <c r="S38" s="29">
+        <v>14.996</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="28">
+      <c r="D39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="28">
         <v>28.577000000000002</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="K38" s="28">
+      <c r="J39" s="61">
+        <f>S39</f>
+        <v>17.997</v>
+      </c>
+      <c r="K39" s="28">
         <v>17.032</v>
       </c>
-      <c r="L38" s="32"/>
-    </row>
-    <row r="39" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
+      <c r="L39" s="32"/>
+      <c r="R39" s="28">
+        <v>26.242999999999999</v>
+      </c>
+      <c r="S39" s="28">
+        <v>17.997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="28">
+      <c r="D40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="28">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J39" s="32"/>
-      <c r="K39" s="28">
+      <c r="J40" s="62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="28">
         <v>2.226</v>
       </c>
-      <c r="L39" s="32"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
+      <c r="L40" s="32"/>
+      <c r="R40" s="28">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="S40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I41" s="29">
         <v>0</v>
       </c>
-      <c r="K40" s="29">
+      <c r="J41" s="62">
+        <f t="shared" si="11"/>
+        <v>4.8</v>
+      </c>
+      <c r="K41" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
+      <c r="R41" s="29">
+        <v>0</v>
+      </c>
+      <c r="S41" s="29">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="29">
-        <f>SUM(I35:I40)+I34</f>
+      <c r="I42" s="29">
+        <f>SUM(I36:I41)+I35</f>
         <v>164.108</v>
       </c>
-      <c r="K41" s="29">
-        <f>SUM(K35:K40)+K34</f>
+      <c r="J42" s="62">
+        <f t="shared" si="11"/>
+        <v>173.37099999999998</v>
+      </c>
+      <c r="K42" s="29">
+        <f>SUM(K36:K41)+K35</f>
         <v>193.09299999999999</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="K42" s="29"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
+      <c r="R42" s="29">
+        <f>SUM(R36:R41)+R35</f>
+        <v>150.79199999999997</v>
+      </c>
+      <c r="S42" s="29">
+        <f>SUM(S36:S41)+S35</f>
+        <v>173.37099999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="K43" s="29"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I44" s="29">
         <v>56.731000000000002</v>
       </c>
-      <c r="K43" s="29">
+      <c r="J44" s="62">
+        <f t="shared" si="11"/>
+        <v>58.75</v>
+      </c>
+      <c r="K44" s="29">
         <v>69.251000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
+      <c r="R44" s="29">
+        <v>31.678000000000001</v>
+      </c>
+      <c r="S44" s="29">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I45" s="29">
         <v>10.484999999999999</v>
       </c>
-      <c r="K44" s="29">
+      <c r="J45" s="62">
+        <f t="shared" si="11"/>
+        <v>9.36</v>
+      </c>
+      <c r="K45" s="29">
         <v>9.7539999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
+      <c r="R45" s="29">
+        <v>11.047000000000001</v>
+      </c>
+      <c r="S45" s="29">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I46" s="29">
         <v>0.998</v>
       </c>
-      <c r="K45" s="29">
+      <c r="J46" s="62">
+        <f t="shared" si="11"/>
+        <v>0.52</v>
+      </c>
+      <c r="K46" s="29">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
+      <c r="R46" s="29">
+        <v>0</v>
+      </c>
+      <c r="S46" s="29">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I46" s="28">
+      <c r="D47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="28">
         <v>4.3959999999999999</v>
       </c>
-      <c r="J46" s="32"/>
-      <c r="K46" s="28">
+      <c r="J47" s="61">
+        <f>S47</f>
+        <v>6.1959999999999997</v>
+      </c>
+      <c r="K47" s="28">
         <v>14.148999999999999</v>
       </c>
-      <c r="L46" s="32"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
+      <c r="L47" s="32"/>
+      <c r="R47" s="28">
+        <v>12.923999999999999</v>
+      </c>
+      <c r="S47" s="28">
+        <v>6.1959999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I48" s="29">
         <v>2.4649999999999999</v>
       </c>
-      <c r="K47" s="29">
+      <c r="J48" s="62">
+        <f t="shared" si="11"/>
+        <v>2.94</v>
+      </c>
+      <c r="K48" s="29">
         <v>2.9020000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
+      <c r="R48" s="29">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="S48" s="29">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I49" s="29">
         <v>3.7679999999999998</v>
       </c>
-      <c r="K48" s="29">
+      <c r="J49" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="K49" s="29">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
+      <c r="R49" s="29">
+        <v>5.1289999999999996</v>
+      </c>
+      <c r="S49" s="29">
+        <v>2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I50" s="29">
         <v>0</v>
       </c>
-      <c r="K49" s="29">
+      <c r="J50" s="62">
+        <f t="shared" si="11"/>
+        <v>2.4</v>
+      </c>
+      <c r="K50" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
+      <c r="R50" s="29">
+        <v>0</v>
+      </c>
+      <c r="S50" s="29">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I50" s="28">
-        <v>0</v>
-      </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="28">
-        <v>0</v>
-      </c>
-      <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="D51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="H51" s="32"/>
       <c r="I51" s="28">
         <v>0</v>
       </c>
-      <c r="J51" s="32"/>
+      <c r="J51" s="61">
+        <f>S51</f>
+        <v>3.129</v>
+      </c>
       <c r="K51" s="28">
+        <v>0</v>
+      </c>
+      <c r="L51" s="32"/>
+      <c r="R51" s="28">
+        <v>0</v>
+      </c>
+      <c r="S51" s="28">
+        <v>3.129</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="28">
+        <v>0</v>
+      </c>
+      <c r="J52" s="61">
+        <f>S52</f>
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="K52" s="28">
         <v>3.4550000000000001</v>
       </c>
-      <c r="L51" s="32"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
+      <c r="L52" s="32"/>
+      <c r="R52" s="28">
+        <v>0</v>
+      </c>
+      <c r="S52" s="28">
+        <v>5.6459999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I52" s="29">
-        <f>SUM(I43:I51)</f>
+      <c r="I53" s="29">
+        <f>SUM(I44:I52)</f>
         <v>78.843000000000018</v>
       </c>
-      <c r="K52" s="29">
-        <f>SUM(K43:K51)</f>
+      <c r="J53" s="62">
+        <f t="shared" ref="J53" si="12">S53</f>
+        <v>90.966999999999999</v>
+      </c>
+      <c r="K53" s="29">
+        <f>SUM(K44:K52)</f>
         <v>103.30900000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
+      <c r="R53" s="29">
+        <f>SUM(R44:R52)</f>
+        <v>63.146000000000001</v>
+      </c>
+      <c r="S53" s="29">
+        <f>SUM(S44:S52)</f>
+        <v>90.966999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="28">
+      <c r="D54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="28">
         <v>8.5329999999999995</v>
       </c>
-      <c r="J53" s="32"/>
-      <c r="K53" s="28">
+      <c r="J54" s="61">
+        <f>S54</f>
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="K54" s="28">
         <v>8.2520000000000007</v>
       </c>
-      <c r="L53" s="32"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
+      <c r="L54" s="32"/>
+      <c r="R54" s="28">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="S54" s="28">
+        <v>7.7240000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I55" s="29">
         <v>34.46</v>
       </c>
-      <c r="K54" s="29">
+      <c r="J55" s="62">
+        <f t="shared" ref="J55:J58" si="13">S55</f>
+        <v>30.451000000000001</v>
+      </c>
+      <c r="K55" s="29">
         <v>28.396999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B55" s="1" t="s">
+      <c r="R55" s="29">
+        <v>35.634999999999998</v>
+      </c>
+      <c r="S55" s="29">
+        <v>30.451000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I56" s="29">
         <v>0</v>
       </c>
-      <c r="K55" s="29">
+      <c r="J56" s="62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="29">
         <v>0.49099999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
+      <c r="R56" s="29">
+        <v>0</v>
+      </c>
+      <c r="S56" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I57" s="29">
         <v>1.228</v>
       </c>
-      <c r="K56" s="29">
+      <c r="J57" s="62">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
+      <c r="K57" s="29">
+        <v>0</v>
+      </c>
+      <c r="R57" s="29">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="S57" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I57" s="29">
-        <f>I52+SUM(I53:I56)</f>
+      <c r="I58" s="29">
+        <f>I53+SUM(I54:I57)</f>
         <v>123.06400000000002</v>
       </c>
-      <c r="K57" s="29">
-        <f>K52+SUM(K53:K56)</f>
+      <c r="J58" s="62">
+        <f t="shared" si="13"/>
+        <v>129.142</v>
+      </c>
+      <c r="K58" s="29">
+        <f>K53+SUM(K54:K57)</f>
         <v>140.44900000000001</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
+      <c r="R58" s="29">
+        <f>R53+SUM(R54:R57)</f>
+        <v>108.03399999999999</v>
+      </c>
+      <c r="S58" s="29">
+        <f>S53+SUM(S54:S57)</f>
+        <v>129.142</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I60" s="29">
         <v>41.043999999999997</v>
       </c>
-      <c r="K59" s="29">
+      <c r="J60" s="62">
+        <f t="shared" ref="J60:J61" si="14">S60</f>
+        <v>44.228999999999999</v>
+      </c>
+      <c r="K60" s="29">
         <v>52.643999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
+      <c r="R60" s="29">
+        <v>42.758000000000003</v>
+      </c>
+      <c r="S60" s="29">
+        <v>44.228999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="29">
-        <f>I59+I57</f>
+      <c r="I61" s="29">
+        <f>I60+I58</f>
         <v>164.108</v>
       </c>
-      <c r="K60" s="29">
-        <f>K59+K57</f>
+      <c r="J61" s="62">
+        <f t="shared" si="14"/>
+        <v>173.37099999999998</v>
+      </c>
+      <c r="K61" s="29">
+        <f>K60+K58</f>
         <v>193.09300000000002</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
+      <c r="R61" s="29">
+        <f>R60+R58</f>
+        <v>150.792</v>
+      </c>
+      <c r="S61" s="29">
+        <f>S60+S58</f>
+        <v>173.37099999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I62" s="29">
-        <f>I41-I57</f>
+      <c r="I63" s="29">
+        <f>I42-I58</f>
         <v>41.043999999999983</v>
       </c>
-      <c r="K62" s="29">
-        <f>K41-K57</f>
+      <c r="J63" s="62">
+        <f t="shared" ref="J63:J64" si="15">S63</f>
+        <v>44.228999999999985</v>
+      </c>
+      <c r="K63" s="29">
+        <f>K42-K58</f>
         <v>52.643999999999977</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
+      <c r="R63" s="29">
+        <f t="shared" ref="R63:S63" si="16">R42-R58</f>
+        <v>42.757999999999981</v>
+      </c>
+      <c r="S63" s="29">
+        <f t="shared" si="16"/>
+        <v>44.228999999999985</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I63" s="1">
-        <f>I62/I16</f>
+      <c r="I64" s="1">
+        <f>I63/I17</f>
         <v>0.39926070038910488</v>
       </c>
-      <c r="K63" s="1">
-        <f>K62/K16</f>
+      <c r="J64" s="33">
+        <f>S64</f>
+        <v>0.40508231444081211</v>
+      </c>
+      <c r="K64" s="1">
+        <f>K63/K17</f>
         <v>0.47728014505893002</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
+      <c r="R64" s="1">
+        <f t="shared" ref="R64:S64" si="17">R63/R17</f>
+        <v>0.45570112988792011</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="17"/>
+        <v>0.40508231444081211</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="34">
-        <f>K35/I35-1</f>
+      <c r="D66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="34">
+        <f>K36/I36-1</f>
         <v>0.44899775196702874</v>
       </c>
-      <c r="L65" s="32"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
+      <c r="L66" s="32"/>
+      <c r="S66" s="34">
+        <f>S36/R36-1</f>
+        <v>0.41550792397838365</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="39" t="s">
+      <c r="J67" s="63">
+        <f>J36/I36-1</f>
+        <v>9.1794679655301747E-2</v>
+      </c>
+      <c r="K67" s="37">
+        <f>K36/J36-1</f>
+        <v>0.32717055593685651</v>
+      </c>
+      <c r="R67" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="S67" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J68" s="40"/>
-      <c r="K68" s="50">
-        <f>K39+K38+K32</f>
+      <c r="D69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="41">
+        <f>I40+I39+I33</f>
+        <v>28.728000000000002</v>
+      </c>
+      <c r="J69" s="71">
+        <f>J40+J39+J33</f>
+        <v>17.997</v>
+      </c>
+      <c r="K69" s="41">
+        <f>K40+K39+K33</f>
         <v>19.350999999999999</v>
       </c>
-      <c r="L68" s="40"/>
-    </row>
-    <row r="69" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="39" t="s">
+      <c r="L69" s="40"/>
+      <c r="R69" s="41">
+        <f>R40+R39+R33</f>
+        <v>27.553999999999998</v>
+      </c>
+      <c r="S69" s="41">
+        <f>S40+S39+S33</f>
+        <v>17.997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J69" s="40"/>
-      <c r="K69" s="50">
-        <f>K46+K50+K51+K53</f>
+      <c r="D70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="41">
+        <f>I47+I51+I52+I54</f>
+        <v>12.928999999999998</v>
+      </c>
+      <c r="J70" s="71">
+        <f>J47+J51+J52+J54</f>
+        <v>22.695</v>
+      </c>
+      <c r="K70" s="41">
+        <f>K47+K51+K52+K54</f>
         <v>25.856000000000002</v>
       </c>
-      <c r="L69" s="40"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
+      <c r="L70" s="40"/>
+      <c r="R70" s="41">
+        <f>R47+R51+R52+R54</f>
+        <v>21.704000000000001</v>
+      </c>
+      <c r="S70" s="41">
+        <f>S47+S51+S52+S54</f>
+        <v>22.695</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="29">
-        <f>K68-K69</f>
+      <c r="I71" s="29">
+        <f>I69-I70</f>
+        <v>15.799000000000003</v>
+      </c>
+      <c r="J71" s="62">
+        <f>J69-J70</f>
+        <v>-4.6980000000000004</v>
+      </c>
+      <c r="K71" s="29">
+        <f>K69-K70</f>
         <v>-6.5050000000000026</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
+      <c r="R71" s="29">
+        <f>R69-R70</f>
+        <v>5.8499999999999979</v>
+      </c>
+      <c r="S71" s="29">
+        <f>S69-S70</f>
+        <v>-4.6980000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K72" s="52">
+      <c r="I73" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J73" s="33">
+        <f>S73</f>
+        <v>2.78</v>
+      </c>
+      <c r="K73" s="43">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
+      <c r="R73" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="S73" s="1">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K73" s="29">
-        <f>K72*K16</f>
+      <c r="I74" s="29">
+        <f>I73*I17</f>
+        <v>114.108</v>
+      </c>
+      <c r="J74" s="62">
+        <f t="shared" ref="J74" si="18">J73*J17</f>
+        <v>303.53490047999998</v>
+      </c>
+      <c r="K74" s="29">
+        <f>K73*K17</f>
         <v>10.919700000000001</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B74" s="1" t="s">
+      <c r="R74" s="29">
+        <f>R73*R17</f>
+        <v>128.54578617000001</v>
+      </c>
+      <c r="S74" s="29">
+        <f>S73*S17</f>
+        <v>303.53490047999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K74" s="29">
-        <f>K73-K70</f>
+      <c r="I75" s="29">
+        <f>I74-I71</f>
+        <v>98.308999999999997</v>
+      </c>
+      <c r="J75" s="62">
+        <f t="shared" ref="J75" si="19">J74-J71</f>
+        <v>308.23290047999996</v>
+      </c>
+      <c r="K75" s="29">
+        <f>K74-K71</f>
         <v>17.424700000000001</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
+      <c r="R75" s="29">
+        <f>R74-R71</f>
+        <v>122.69578617000002</v>
+      </c>
+      <c r="S75" s="29">
+        <f>S74-S71</f>
+        <v>308.23290047999996</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K76" s="51">
-        <f>K72/K63</f>
+      <c r="I77" s="42">
+        <f>I73/I64</f>
+        <v>2.7801383880713395</v>
+      </c>
+      <c r="J77" s="72">
+        <f t="shared" ref="J77" si="20">J73/J64</f>
+        <v>6.8628026968730937</v>
+      </c>
+      <c r="K77" s="42">
+        <f>K73/K64</f>
         <v>0.20742534761796225</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+      <c r="R77" s="42">
+        <f>R73/R64</f>
+        <v>3.0063563817297365</v>
+      </c>
+      <c r="S77" s="42">
+        <f>S73/S64</f>
+        <v>6.8628026968730937</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="S80" s="42">
+        <f>(S73/100)/S16</f>
+        <v>3.3990470378499706</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" s="37"/>
+      <c r="J82" s="63">
+        <f>J36/SUM(I4:J4)</f>
+        <v>0.23428321616827549</v>
+      </c>
+      <c r="K82" s="37">
+        <f>K36/SUM(J4:K4)</f>
+        <v>0.26622666999389055</v>
+      </c>
+      <c r="R82" s="37">
+        <f>R36/R4</f>
+        <v>0.17262378935893674</v>
+      </c>
+      <c r="S82" s="37">
+        <f>S36/S4</f>
+        <v>0.23428321616827549</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1" xr:uid="{08BE6534-85B4-466B-AF8F-EA576AD3A39A}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{AE8D872F-B169-B44D-9649-1C85ECE3670A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="J6:J17 J30:J64" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/£JOUL.xlsx
+++ b/£JOUL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2412AC-27D4-BD4F-ADF2-B26FE7789A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6140788B-F370-48B1-9DD5-3C77169880BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -107,9 +97,6 @@
     <t xml:space="preserve">Joules file to appoint administrators after financing talks break down </t>
   </si>
   <si>
-    <t>Market Harborough</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -339,6 +326,9 @@
   </si>
   <si>
     <t>Inventory/Revenue</t>
+  </si>
+  <si>
+    <t>Market Harborough, UK</t>
   </si>
 </sst>
 </file>
@@ -349,8 +339,8 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
-    <numFmt numFmtId="170" formatCode="0.\1\x"/>
-    <numFmt numFmtId="171" formatCode="0.00\x"/>
+    <numFmt numFmtId="167" formatCode="0.\1\x"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -647,61 +637,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -710,10 +649,61 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1205,48 +1195,48 @@
   <dimension ref="A2:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="G5" s="54" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="G5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1258,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1267,7 @@
         <v>110.3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="19">
         <v>44879</v>
@@ -1297,7 +1287,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1310,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1319,7 @@
         <v>19.350999999999999</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="11"/>
@@ -1345,7 +1335,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1344,7 @@
         <v>25.856000000000002</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="11"/>
@@ -1370,7 +1360,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1369,7 @@
         <v>-6.5050000000000026</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="11"/>
@@ -1395,7 +1385,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +1408,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G13" s="16"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1433,7 +1423,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G14" s="16"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1448,12 +1438,12 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="54" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="G15" s="16"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1468,14 +1458,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="51"/>
+      <c r="C16" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="67"/>
       <c r="G16" s="16"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1490,14 +1480,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="51"/>
+      <c r="C17" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="67"/>
       <c r="G17" s="16"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1512,12 +1502,12 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="G18" s="16"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1532,17 +1522,17 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="74"/>
       <c r="G19" s="16"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1557,7 +1547,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G20" s="16"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1572,7 +1562,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G21" s="16"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -1587,17 +1577,17 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B22" s="54" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
       <c r="G22" s="46">
         <v>44508</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1611,14 +1601,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="51"/>
+      <c r="C23" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="67"/>
       <c r="G23" s="16"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1633,14 +1623,14 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="66">
         <v>1989</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="67"/>
       <c r="G24" s="16"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1655,10 +1645,10 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
       <c r="G25" s="16"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1673,15 +1663,15 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="64">
         <f>'Financial Model'!K36</f>
         <v>61.878</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="65"/>
       <c r="G26" s="16"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1696,10 +1686,10 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
       <c r="G27" s="16"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1714,12 +1704,12 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="45">
         <v>44600</v>
@@ -1738,14 +1728,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="53"/>
+      <c r="C29" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="69"/>
       <c r="G29" s="16"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1760,7 +1750,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G30" s="16"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1775,7 +1765,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G31" s="16"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -1790,12 +1780,12 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B32" s="54" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="G32" s="16"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1810,15 +1800,15 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="59">
+        <v>84</v>
+      </c>
+      <c r="C33" s="56">
         <f>'Financial Model'!K77</f>
         <v>0.20742534761796225</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="57"/>
       <c r="G33" s="16"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1833,15 +1823,15 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="67">
+        <v>85</v>
+      </c>
+      <c r="C34" s="58">
         <f>C8/SUM('Financial Model'!J4:K4)</f>
         <v>4.3754399249653658E-2</v>
       </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="59"/>
       <c r="G34" s="16"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1856,15 +1846,15 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="59">
+        <v>86</v>
+      </c>
+      <c r="C35" s="56">
         <f>C12/SUM('Financial Model'!J4:K4)</f>
         <v>7.1741801691721258E-2</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="57"/>
       <c r="G35" s="16"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -1879,15 +1869,15 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="65">
+        <v>88</v>
+      </c>
+      <c r="C36" s="60">
         <f>C12/SUM('Financial Model'!J15:K15)</f>
         <v>8.2793743793445529</v>
       </c>
-      <c r="D36" s="66"/>
+      <c r="D36" s="61"/>
       <c r="G36" s="16"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -1902,15 +1892,15 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="73">
+        <v>87</v>
+      </c>
+      <c r="C37" s="62">
         <f>C6/SUM('Financial Model'!J16:K16)</f>
         <v>5.0560966752336345</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="63"/>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1927,11 +1917,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:D29"/>
@@ -1947,6 +1932,11 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5421A33A-B86C-4727-9FDA-EA3E30BFBF6A}"/>
@@ -1969,74 +1959,74 @@
       <selection pane="bottomRight" activeCell="K16" sqref="J16:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="33"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="33"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="33"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="33"/>
-    <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="33"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="33"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="33"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="33"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="33"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="G1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>92</v>
-      </c>
       <c r="I1" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="D2" s="31"/>
       <c r="F2" s="31"/>
@@ -2044,12 +2034,12 @@
         <v>43793</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="26">
         <v>44072</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="52">
         <f>S2</f>
         <v>44346</v>
       </c>
@@ -2064,12 +2054,12 @@
         <v>44346</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="D3" s="31"/>
       <c r="F3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="70">
+      <c r="J3" s="53">
         <f>S3</f>
         <v>44411</v>
       </c>
@@ -2081,23 +2071,23 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="2">
         <v>111.6</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="48">
         <f>R4-G4</f>
         <v>79.207999999999998</v>
       </c>
       <c r="I4" s="28">
         <v>94.451999999999998</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="48">
         <f>S4-I4</f>
         <v>104.55500000000001</v>
       </c>
@@ -2112,14 +2102,14 @@
         <v>199.00700000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="29">
         <v>47.005000000000003</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="49">
         <f>S5-I5</f>
         <v>54.499999999999993</v>
       </c>
@@ -2133,9 +2123,9 @@
         <v>101.505</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="32"/>
       <c r="F6" s="32"/>
@@ -2144,7 +2134,7 @@
         <f>I4-I5</f>
         <v>47.446999999999996</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="48">
         <f>J4-J5</f>
         <v>50.055000000000014</v>
       </c>
@@ -2162,14 +2152,14 @@
         <v>97.50200000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="29">
         <v>44.530999999999999</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="49">
         <f t="shared" ref="J7:J9" si="0">S7-I7</f>
         <v>43.595000000000006</v>
       </c>
@@ -2183,14 +2173,14 @@
         <v>88.126000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="29">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="49">
         <f t="shared" si="0"/>
         <v>0.95000000000000007</v>
       </c>
@@ -2204,14 +2194,14 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="29">
         <v>0</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="49">
         <f t="shared" si="0"/>
         <v>4.1619999999999999</v>
       </c>
@@ -2225,15 +2215,15 @@
         <v>4.1619999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="29">
         <f>I7+I8+I9</f>
         <v>45.234000000000002</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="49">
         <f>J7+J8+J9</f>
         <v>48.707000000000008</v>
       </c>
@@ -2250,9 +2240,9 @@
         <v>93.941000000000017</v>
       </c>
     </row>
-    <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="32"/>
       <c r="F11" s="32"/>
@@ -2261,7 +2251,7 @@
         <f>I6-I10</f>
         <v>2.2129999999999939</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="48">
         <f>J6-J10</f>
         <v>1.3480000000000061</v>
       </c>
@@ -2279,14 +2269,14 @@
         <v>3.5609999999999928</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="29">
         <v>0.88500000000000001</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="49">
         <f t="shared" ref="J12" si="1">S12-I12</f>
         <v>0.69799999999999995</v>
       </c>
@@ -2300,15 +2290,15 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="29">
         <f>I11-I12</f>
         <v>1.3279999999999939</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="49">
         <f>J11-J12</f>
         <v>0.65000000000000613</v>
       </c>
@@ -2325,14 +2315,14 @@
         <v>1.9779999999999929</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="29">
         <v>0.17699999999999999</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="49">
         <f t="shared" ref="J14" si="2">S14-I14</f>
         <v>0.90799999999999992</v>
       </c>
@@ -2346,9 +2336,9 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="15" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="32"/>
       <c r="F15" s="32"/>
@@ -2357,7 +2347,7 @@
         <f>I13-I14</f>
         <v>1.1509999999999938</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="48">
         <f>J13-J14</f>
         <v>-0.25799999999999379</v>
       </c>
@@ -2375,9 +2365,9 @@
         <v>0.89299999999999291</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="35">
         <f>I15/I17</f>
@@ -2400,14 +2390,14 @@
         <v>8.1787629563327777E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="1">
         <v>102.8</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="49">
         <f>S17</f>
         <v>109.185216</v>
       </c>
@@ -2421,9 +2411,9 @@
         <v>109.185216</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="32"/>
       <c r="F19" s="32"/>
@@ -2432,7 +2422,7 @@
         <f>I4/G4-1</f>
         <v>-0.15365591397849465</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="51">
         <f>J4/H4-1</f>
         <v>0.32000555499444516</v>
       </c>
@@ -2446,11 +2436,11 @@
         <v>4.2969896440400834E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="63">
+        <v>46</v>
+      </c>
+      <c r="H20" s="50">
         <f>H4/G4-1</f>
         <v>-0.29025089605734766</v>
       </c>
@@ -2458,7 +2448,7 @@
         <f>I4/H4-1</f>
         <v>0.19245530754469242</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="50">
         <f>J4/I4-1</f>
         <v>0.10696438402574859</v>
       </c>
@@ -2467,30 +2457,30 @@
         <v>0.22300224762086929</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="37">
         <f>I6/I4</f>
         <v>0.50233981281497475</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="50">
         <f t="shared" ref="J22" si="3">J6/J4</f>
         <v>0.47874324518196176</v>
       </c>
@@ -2507,15 +2497,15 @@
         <v>0.48994256483440285</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="37">
         <f>I11/I4</f>
         <v>2.3429890314657115E-2</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="50">
         <f t="shared" ref="J23" si="5">J11/J4</f>
         <v>1.2892735880637043E-2</v>
       </c>
@@ -2532,15 +2522,15 @@
         <v>1.789384293014815E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="37">
         <f>I15/I4</f>
         <v>1.2186083936814401E-2</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="50">
         <f t="shared" ref="J24" si="7">J15/J4</f>
         <v>-2.4676007842761587E-3</v>
       </c>
@@ -2557,15 +2547,15 @@
         <v>4.4872793419326604E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="37">
         <f>I14/I13</f>
         <v>0.13328313253012108</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="50">
         <f t="shared" ref="J25" si="9">J14/J13</f>
         <v>1.3969230769230636</v>
       </c>
@@ -2582,19 +2572,19 @@
         <v>0.54853387259858644</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I30" s="29">
         <v>18.748000000000001</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="49">
         <f>S30</f>
         <v>31.096999999999998</v>
       </c>
@@ -2610,14 +2600,14 @@
         <v>31.096999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I31" s="29">
         <v>23.667999999999999</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="49">
         <f t="shared" ref="J31:J50" si="11">S31</f>
         <v>27.736999999999998</v>
       </c>
@@ -2631,14 +2621,14 @@
         <v>27.736999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" s="29">
         <v>32.344000000000001</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="49">
         <f t="shared" si="11"/>
         <v>28.286999999999999</v>
       </c>
@@ -2652,9 +2642,9 @@
         <v>28.286999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="32"/>
       <c r="F33" s="32"/>
@@ -2662,7 +2652,7 @@
       <c r="I33" s="28">
         <v>0.02</v>
       </c>
-      <c r="J33" s="61">
+      <c r="J33" s="48">
         <f>S33</f>
         <v>0</v>
       </c>
@@ -2677,14 +2667,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I34" s="29">
         <v>2.831</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="49">
         <f t="shared" si="11"/>
         <v>0.90800000000000003</v>
       </c>
@@ -2699,15 +2689,15 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I35" s="29">
         <f>SUM(I30:I34)</f>
         <v>77.61099999999999</v>
       </c>
-      <c r="J35" s="62">
+      <c r="J35" s="49">
         <f t="shared" si="11"/>
         <v>88.028999999999996</v>
       </c>
@@ -2724,9 +2714,9 @@
         <v>88.028999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="32"/>
       <c r="F36" s="32"/>
@@ -2734,7 +2724,7 @@
       <c r="I36" s="28">
         <v>42.704000000000001</v>
       </c>
-      <c r="J36" s="61">
+      <c r="J36" s="48">
         <f>S36</f>
         <v>46.624000000000002</v>
       </c>
@@ -2749,14 +2739,14 @@
         <v>46.624000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="29">
         <v>1.6140000000000001</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="49">
         <f t="shared" si="11"/>
         <v>0.92500000000000004</v>
       </c>
@@ -2770,14 +2760,14 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38" s="29">
         <v>13.471</v>
       </c>
-      <c r="J38" s="62">
+      <c r="J38" s="49">
         <f t="shared" si="11"/>
         <v>14.996</v>
       </c>
@@ -2791,7 +2781,7 @@
         <v>14.996</v>
       </c>
     </row>
-    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2801,7 +2791,7 @@
       <c r="I39" s="28">
         <v>28.577000000000002</v>
       </c>
-      <c r="J39" s="61">
+      <c r="J39" s="48">
         <f>S39</f>
         <v>17.997</v>
       </c>
@@ -2816,9 +2806,9 @@
         <v>17.997</v>
       </c>
     </row>
-    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="32"/>
       <c r="F40" s="32"/>
@@ -2826,7 +2816,7 @@
       <c r="I40" s="28">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2841,14 +2831,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="29">
         <v>0</v>
       </c>
-      <c r="J41" s="62">
+      <c r="J41" s="49">
         <f t="shared" si="11"/>
         <v>4.8</v>
       </c>
@@ -2862,15 +2852,15 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="29">
         <f>SUM(I36:I41)+I35</f>
         <v>164.108</v>
       </c>
-      <c r="J42" s="62">
+      <c r="J42" s="49">
         <f t="shared" si="11"/>
         <v>173.37099999999998</v>
       </c>
@@ -2887,17 +2877,17 @@
         <v>173.37099999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44" s="29">
         <v>56.731000000000002</v>
       </c>
-      <c r="J44" s="62">
+      <c r="J44" s="49">
         <f t="shared" si="11"/>
         <v>58.75</v>
       </c>
@@ -2911,14 +2901,14 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="29">
         <v>10.484999999999999</v>
       </c>
-      <c r="J45" s="62">
+      <c r="J45" s="49">
         <f t="shared" si="11"/>
         <v>9.36</v>
       </c>
@@ -2932,14 +2922,14 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I46" s="29">
         <v>0.998</v>
       </c>
-      <c r="J46" s="62">
+      <c r="J46" s="49">
         <f t="shared" si="11"/>
         <v>0.52</v>
       </c>
@@ -2953,9 +2943,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="32"/>
       <c r="F47" s="32"/>
@@ -2963,7 +2953,7 @@
       <c r="I47" s="28">
         <v>4.3959999999999999</v>
       </c>
-      <c r="J47" s="61">
+      <c r="J47" s="48">
         <f>S47</f>
         <v>6.1959999999999997</v>
       </c>
@@ -2978,14 +2968,14 @@
         <v>6.1959999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I48" s="29">
         <v>2.4649999999999999</v>
       </c>
-      <c r="J48" s="62">
+      <c r="J48" s="49">
         <f t="shared" si="11"/>
         <v>2.94</v>
       </c>
@@ -2999,14 +2989,14 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I49" s="29">
         <v>3.7679999999999998</v>
       </c>
-      <c r="J49" s="62">
+      <c r="J49" s="49">
         <f t="shared" si="11"/>
         <v>2.0259999999999998</v>
       </c>
@@ -3020,14 +3010,14 @@
         <v>2.0259999999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I50" s="29">
         <v>0</v>
       </c>
-      <c r="J50" s="62">
+      <c r="J50" s="49">
         <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
@@ -3041,9 +3031,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="32"/>
       <c r="F51" s="32"/>
@@ -3051,7 +3041,7 @@
       <c r="I51" s="28">
         <v>0</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="48">
         <f>S51</f>
         <v>3.129</v>
       </c>
@@ -3066,9 +3056,9 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="32"/>
       <c r="F52" s="32"/>
@@ -3076,7 +3066,7 @@
       <c r="I52" s="28">
         <v>0</v>
       </c>
-      <c r="J52" s="61">
+      <c r="J52" s="48">
         <f>S52</f>
         <v>5.6459999999999999</v>
       </c>
@@ -3091,15 +3081,15 @@
         <v>5.6459999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" s="29">
         <f>SUM(I44:I52)</f>
         <v>78.843000000000018</v>
       </c>
-      <c r="J53" s="62">
+      <c r="J53" s="49">
         <f t="shared" ref="J53" si="12">S53</f>
         <v>90.966999999999999</v>
       </c>
@@ -3116,9 +3106,9 @@
         <v>90.966999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="32"/>
       <c r="F54" s="32"/>
@@ -3126,7 +3116,7 @@
       <c r="I54" s="28">
         <v>8.5329999999999995</v>
       </c>
-      <c r="J54" s="61">
+      <c r="J54" s="48">
         <f>S54</f>
         <v>7.7240000000000002</v>
       </c>
@@ -3141,14 +3131,14 @@
         <v>7.7240000000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="29">
         <v>34.46</v>
       </c>
-      <c r="J55" s="62">
+      <c r="J55" s="49">
         <f t="shared" ref="J55:J58" si="13">S55</f>
         <v>30.451000000000001</v>
       </c>
@@ -3162,14 +3152,14 @@
         <v>30.451000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I56" s="29">
         <v>0</v>
       </c>
-      <c r="J56" s="62">
+      <c r="J56" s="49">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3183,14 +3173,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I57" s="29">
         <v>1.228</v>
       </c>
-      <c r="J57" s="62">
+      <c r="J57" s="49">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3204,15 +3194,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I58" s="29">
         <f>I53+SUM(I54:I57)</f>
         <v>123.06400000000002</v>
       </c>
-      <c r="J58" s="62">
+      <c r="J58" s="49">
         <f t="shared" si="13"/>
         <v>129.142</v>
       </c>
@@ -3229,14 +3219,14 @@
         <v>129.142</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I60" s="29">
         <v>41.043999999999997</v>
       </c>
-      <c r="J60" s="62">
+      <c r="J60" s="49">
         <f t="shared" ref="J60:J61" si="14">S60</f>
         <v>44.228999999999999</v>
       </c>
@@ -3250,15 +3240,15 @@
         <v>44.228999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I61" s="29">
         <f>I60+I58</f>
         <v>164.108</v>
       </c>
-      <c r="J61" s="62">
+      <c r="J61" s="49">
         <f t="shared" si="14"/>
         <v>173.37099999999998</v>
       </c>
@@ -3275,16 +3265,16 @@
         <v>173.37099999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I63" s="29">
         <f>I42-I58</f>
         <v>41.043999999999983</v>
       </c>
-      <c r="J63" s="62">
-        <f t="shared" ref="J63:J64" si="15">S63</f>
+      <c r="J63" s="49">
+        <f t="shared" ref="J63" si="15">S63</f>
         <v>44.228999999999985</v>
       </c>
       <c r="K63" s="29">
@@ -3300,9 +3290,9 @@
         <v>44.228999999999985</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I64" s="1">
         <f>I63/I17</f>
@@ -3325,9 +3315,9 @@
         <v>0.40508231444081211</v>
       </c>
     </row>
-    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="32"/>
       <c r="F66" s="32"/>
@@ -3343,11 +3333,11 @@
         <v>0.41550792397838365</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J67" s="63">
+        <v>82</v>
+      </c>
+      <c r="J67" s="50">
         <f>J36/I36-1</f>
         <v>9.1794679655301747E-2</v>
       </c>
@@ -3356,13 +3346,13 @@
         <v>0.32717055593685651</v>
       </c>
       <c r="R67" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S67" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="39" t="s">
         <v>6</v>
       </c>
@@ -3373,7 +3363,7 @@
         <f>I40+I39+I33</f>
         <v>28.728000000000002</v>
       </c>
-      <c r="J69" s="71">
+      <c r="J69" s="54">
         <f>J40+J39+J33</f>
         <v>17.997</v>
       </c>
@@ -3391,7 +3381,7 @@
         <v>17.997</v>
       </c>
     </row>
-    <row r="70" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="39" t="s">
         <v>7</v>
       </c>
@@ -3402,7 +3392,7 @@
         <f>I47+I51+I52+I54</f>
         <v>12.928999999999998</v>
       </c>
-      <c r="J70" s="71">
+      <c r="J70" s="54">
         <f>J47+J51+J52+J54</f>
         <v>22.695</v>
       </c>
@@ -3420,7 +3410,7 @@
         <v>22.695</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
@@ -3428,7 +3418,7 @@
         <f>I69-I70</f>
         <v>15.799000000000003</v>
       </c>
-      <c r="J71" s="62">
+      <c r="J71" s="49">
         <f>J69-J70</f>
         <v>-4.6980000000000004</v>
       </c>
@@ -3445,9 +3435,9 @@
         <v>-4.6980000000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I73" s="1">
         <v>1.1100000000000001</v>
@@ -3466,7 +3456,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
@@ -3474,7 +3464,7 @@
         <f>I73*I17</f>
         <v>114.108</v>
       </c>
-      <c r="J74" s="62">
+      <c r="J74" s="49">
         <f t="shared" ref="J74" si="18">J73*J17</f>
         <v>303.53490047999998</v>
       </c>
@@ -3491,7 +3481,7 @@
         <v>303.53490047999998</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
@@ -3499,7 +3489,7 @@
         <f>I74-I71</f>
         <v>98.308999999999997</v>
       </c>
-      <c r="J75" s="62">
+      <c r="J75" s="49">
         <f t="shared" ref="J75" si="19">J74-J71</f>
         <v>308.23290047999996</v>
       </c>
@@ -3516,15 +3506,15 @@
         <v>308.23290047999996</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I77" s="42">
         <f>I73/I64</f>
         <v>2.7801383880713395</v>
       </c>
-      <c r="J77" s="72">
+      <c r="J77" s="55">
         <f t="shared" ref="J77" si="20">J73/J64</f>
         <v>6.8628026968730937</v>
       </c>
@@ -3541,31 +3531,31 @@
         <v>6.8628026968730937</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="S80" s="42">
         <f>(S73/100)/S16</f>
         <v>3.3990470378499706</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I82" s="37"/>
-      <c r="J82" s="63">
+      <c r="J82" s="50">
         <f>J36/SUM(I4:J4)</f>
         <v>0.23428321616827549</v>
       </c>

--- a/£JOUL.xlsx
+++ b/£JOUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6140788B-F370-48B1-9DD5-3C77169880BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E61720-9B96-46D5-887A-DEA815B43F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>£JOUL</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Market Harborough, UK</t>
+  </si>
+  <si>
+    <t>Crew Clothing owner, Brigadier Acquisition Company, is considering a takeover of £JOUL</t>
   </si>
 </sst>
 </file>
@@ -649,6 +652,39 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,39 +707,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +738,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>158734</xdr:colOff>
+      <xdr:colOff>82534</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1195,12 +1198,17 @@
   <dimension ref="A2:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.25">
@@ -1215,26 +1223,26 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="G5" s="70" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1270,10 +1278,10 @@
         <v>29</v>
       </c>
       <c r="G7" s="19">
-        <v>44879</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>22</v>
+        <v>44886</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1346,8 +1354,12 @@
       <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="19">
+        <v>44879</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1439,11 +1451,11 @@
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="G15" s="16"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1462,10 +1474,10 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="59"/>
       <c r="G16" s="16"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1484,10 +1496,10 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="59"/>
       <c r="G17" s="16"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1506,8 +1518,8 @@
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
       <c r="G18" s="16"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1529,10 +1541,10 @@
       <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="66"/>
       <c r="G19" s="16"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1578,11 +1590,11 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="G22" s="46">
         <v>44508</v>
       </c>
@@ -1605,10 +1617,10 @@
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="59"/>
       <c r="G23" s="16"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1627,10 +1639,10 @@
       <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="58">
         <v>1989</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="59"/>
       <c r="G24" s="16"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1647,8 +1659,8 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
       <c r="G25" s="16"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1667,11 +1679,11 @@
       <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="56">
         <f>'Financial Model'!K36</f>
         <v>61.878</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="57"/>
       <c r="G26" s="16"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1688,8 +1700,8 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
       <c r="G27" s="16"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1732,10 +1744,10 @@
       <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="61"/>
       <c r="G29" s="16"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1781,11 +1793,11 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="G32" s="16"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1804,11 +1816,11 @@
       <c r="B33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="67">
         <f>'Financial Model'!K77</f>
         <v>0.20742534761796225</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="68"/>
       <c r="G33" s="16"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1827,11 +1839,11 @@
       <c r="B34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="69">
         <f>C8/SUM('Financial Model'!J4:K4)</f>
         <v>4.3754399249653658E-2</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="70"/>
       <c r="G34" s="16"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1850,11 +1862,11 @@
       <c r="B35" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="67">
         <f>C12/SUM('Financial Model'!J4:K4)</f>
         <v>7.1741801691721258E-2</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="68"/>
       <c r="G35" s="16"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -1873,11 +1885,11 @@
       <c r="B36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="71">
         <f>C12/SUM('Financial Model'!J15:K15)</f>
         <v>8.2793743793445529</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="72"/>
       <c r="G36" s="16"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -1896,11 +1908,11 @@
       <c r="B37" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="73">
         <f>C6/SUM('Financial Model'!J16:K16)</f>
         <v>5.0560966752336345</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="74"/>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1917,6 +1929,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:D29"/>
@@ -1932,19 +1949,15 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5421A33A-B86C-4727-9FDA-EA3E30BFBF6A}"/>
     <hyperlink ref="H22" r:id="rId2" xr:uid="{30AC97B8-6A64-A74C-90DA-59D3198B2670}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{1A915FBC-B945-4DFB-A1EE-92C8795FB023}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/£JOUL.xlsx
+++ b/£JOUL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E61720-9B96-46D5-887A-DEA815B43F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E53FD4B-EE0C-C240-B3D8-B77B25804C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>£JOUL</t>
   </si>
@@ -332,6 +342,9 @@
   </si>
   <si>
     <t>Crew Clothing owner, Brigadier Acquisition Company, is considering a takeover of £JOUL</t>
+  </si>
+  <si>
+    <t>ROCE</t>
   </si>
 </sst>
 </file>
@@ -345,7 +358,7 @@
     <numFmt numFmtId="167" formatCode="0.\1\x"/>
     <numFmt numFmtId="168" formatCode="0.00\x"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +435,13 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -551,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -652,6 +672,24 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,28 +723,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +824,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -855,7 +874,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1195,56 +1214,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570C7E1B-ADE6-46D7-B76E-B92B72B7FE98}">
-  <dimension ref="A2:S37"/>
+  <dimension ref="A2:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="62" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="G5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1285,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1314,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1337,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1362,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1391,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1416,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1439,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G13" s="16"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1435,7 +1454,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G14" s="16"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1450,12 +1469,12 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="G15" s="16"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1470,14 +1489,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="65"/>
       <c r="G16" s="16"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1492,14 +1511,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="65"/>
       <c r="G17" s="16"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1514,12 +1533,12 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="G18" s="16"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1534,17 +1553,17 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="72"/>
       <c r="G19" s="16"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1559,7 +1578,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G20" s="16"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1574,7 +1593,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G21" s="16"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -1589,12 +1608,12 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B22" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
       <c r="G22" s="46">
         <v>44508</v>
       </c>
@@ -1613,14 +1632,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="65"/>
       <c r="G23" s="16"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1635,14 +1654,14 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="64">
         <v>1989</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="65"/>
       <c r="G24" s="16"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1657,10 +1676,10 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B25" s="16"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
       <c r="G25" s="16"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1675,15 +1694,15 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="62">
         <f>'Financial Model'!K36</f>
         <v>61.878</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="63"/>
       <c r="G26" s="16"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1698,10 +1717,10 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
       <c r="G27" s="16"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1716,7 +1735,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
@@ -1740,14 +1759,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="61"/>
+      <c r="D29" s="67"/>
       <c r="G29" s="16"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1762,7 +1781,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G30" s="16"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1777,7 +1796,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G31" s="16"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -1792,12 +1811,12 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B32" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="G32" s="16"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1812,15 +1831,15 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="56">
         <f>'Financial Model'!K77</f>
         <v>0.20742534761796225</v>
       </c>
-      <c r="D33" s="68"/>
+      <c r="D33" s="57"/>
       <c r="G33" s="16"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1835,15 +1854,15 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="58">
         <f>C8/SUM('Financial Model'!J4:K4)</f>
         <v>4.3754399249653658E-2</v>
       </c>
-      <c r="D34" s="70"/>
+      <c r="D34" s="59"/>
       <c r="G34" s="16"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1858,15 +1877,15 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="56">
         <f>C12/SUM('Financial Model'!J4:K4)</f>
         <v>7.1741801691721258E-2</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="57"/>
       <c r="G35" s="16"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -1881,15 +1900,15 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="71">
+      <c r="C36" s="60">
         <f>C12/SUM('Financial Model'!J15:K15)</f>
         <v>8.2793743793445529</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="61"/>
       <c r="G36" s="16"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -1904,15 +1923,15 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="56">
         <f>C6/SUM('Financial Model'!J16:K16)</f>
         <v>5.0560966752336345</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="57"/>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1927,13 +1946,19 @@
       <c r="R37" s="14"/>
       <c r="S37" s="15"/>
     </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B38" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="75">
+        <f>'Financial Model'!K81</f>
+        <v>8.8595091558392416E-2</v>
+      </c>
+      <c r="D38" s="72"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+  <mergeCells count="21">
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:D29"/>
@@ -1949,6 +1974,11 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{5421A33A-B86C-4727-9FDA-EA3E30BFBF6A}"/>
@@ -1963,33 +1993,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A0F92-CF5D-4546-9777-39819DEC72FB}">
-  <dimension ref="B1:U82"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="J16:K16"/>
+      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="33"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="33"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="33"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="33"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="33"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="33"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="33"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="33"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="33"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="9.1640625" style="33"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="21" t="s">
         <v>94</v>
       </c>
@@ -2039,7 +2069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="22"/>
       <c r="D2" s="31"/>
       <c r="F2" s="31"/>
@@ -2067,7 +2097,7 @@
         <v>44346</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="22"/>
       <c r="D3" s="31"/>
       <c r="F3" s="31"/>
@@ -2084,7 +2114,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -2115,7 +2145,7 @@
         <v>199.00700000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2136,7 +2166,7 @@
         <v>101.505</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2195,7 @@
         <v>97.50200000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2216,7 @@
         <v>88.126000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +2237,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B9" s="27" t="s">
         <v>97</v>
       </c>
@@ -2228,7 +2258,7 @@
         <v>4.1619999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2253,7 +2283,7 @@
         <v>93.941000000000017</v>
       </c>
     </row>
-    <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2282,7 +2312,7 @@
         <v>3.5609999999999928</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2303,7 +2333,7 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2328,7 +2358,7 @@
         <v>1.9779999999999929</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2349,7 +2379,7 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="15" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2378,7 +2408,7 @@
         <v>0.89299999999999291</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2403,7 +2433,7 @@
         <v>8.1787629563327777E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2454,7 @@
         <v>109.185216</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>4.2969896440400834E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2485,7 +2515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -2510,7 +2540,7 @@
         <v>0.48994256483440285</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2535,7 +2565,7 @@
         <v>1.789384293014815E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2560,7 +2590,7 @@
         <v>4.4872793419326604E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2585,12 +2615,12 @@
         <v>0.54853387259858644</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
@@ -2613,7 +2643,7 @@
         <v>31.096999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
@@ -2634,7 +2664,7 @@
         <v>27.736999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2655,7 +2685,7 @@
         <v>28.286999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2680,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -2702,7 +2732,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2727,7 +2757,7 @@
         <v>88.028999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2752,7 +2782,7 @@
         <v>46.624000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2773,7 +2803,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
@@ -2794,7 +2824,7 @@
         <v>14.996</v>
       </c>
     </row>
-    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2849,7 @@
         <v>17.997</v>
       </c>
     </row>
-    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -2844,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,7 +2895,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2890,10 +2920,10 @@
         <v>173.37099999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
       <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2914,7 +2944,7 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,7 +2965,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2956,7 +2986,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>71</v>
       </c>
@@ -2981,7 +3011,7 @@
         <v>6.1959999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3002,7 +3032,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3023,7 +3053,7 @@
         <v>2.0259999999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
@@ -3044,7 +3074,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
@@ -3069,7 +3099,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>74</v>
       </c>
@@ -3094,7 +3124,7 @@
         <v>5.6459999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
@@ -3119,7 +3149,7 @@
         <v>90.966999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
         <v>71</v>
       </c>
@@ -3144,7 +3174,7 @@
         <v>7.7240000000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
@@ -3165,7 +3195,7 @@
         <v>30.451000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
@@ -3186,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
@@ -3207,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>76</v>
       </c>
@@ -3232,7 +3262,7 @@
         <v>129.142</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>77</v>
       </c>
@@ -3253,7 +3283,7 @@
         <v>44.228999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>78</v>
       </c>
@@ -3278,7 +3308,7 @@
         <v>173.37099999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
@@ -3303,7 +3333,7 @@
         <v>44.228999999999985</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>80</v>
       </c>
@@ -3328,7 +3358,7 @@
         <v>0.40508231444081211</v>
       </c>
     </row>
-    <row r="66" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
@@ -3346,7 +3376,7 @@
         <v>0.41550792397838365</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
@@ -3365,7 +3395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="39" t="s">
         <v>6</v>
       </c>
@@ -3394,7 +3424,7 @@
         <v>17.997</v>
       </c>
     </row>
-    <row r="70" spans="2:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="39" t="s">
         <v>7</v>
       </c>
@@ -3423,7 +3453,7 @@
         <v>22.695</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3478,7 @@
         <v>-4.6980000000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3469,7 +3499,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
@@ -3494,7 +3524,7 @@
         <v>303.53490047999998</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
@@ -3519,7 +3549,11 @@
         <v>308.23290047999996</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A77" s="73">
+        <f>AVERAGE(C77:AB77)</f>
+        <v>3.9439051022330447</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>84</v>
       </c>
@@ -3544,17 +3578,17 @@
         <v>6.8628026968730937</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
@@ -3563,24 +3597,53 @@
         <v>3.3990470378499706</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+    <row r="81" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="74">
+        <f>AVERAGE(C81:AB81)</f>
+        <v>-7.2312314015859455E-2</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="J81" s="50">
+        <f t="shared" ref="J81:K81" si="21">SUM(I11:J11)/J63</f>
+        <v>8.051278572882048E-2</v>
+      </c>
+      <c r="K81" s="37">
+        <f>SUM(J11:K11)/K63</f>
+        <v>8.8595091558392416E-2</v>
+      </c>
+      <c r="L81" s="50"/>
+      <c r="R81" s="37">
+        <f t="shared" ref="R81:S81" si="22">R11/R63</f>
+        <v>-0.53886991907947102</v>
+      </c>
+      <c r="S81" s="37">
+        <f>S11/S63</f>
+        <v>8.0512785728820327E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I82" s="37"/>
-      <c r="J82" s="50">
+      <c r="I83" s="37"/>
+      <c r="J83" s="50">
         <f>J36/SUM(I4:J4)</f>
         <v>0.23428321616827549</v>
       </c>
-      <c r="K82" s="37">
+      <c r="K83" s="37">
         <f>K36/SUM(J4:K4)</f>
         <v>0.26622666999389055</v>
       </c>
-      <c r="R82" s="37">
+      <c r="R83" s="37">
         <f>R36/R4</f>
         <v>0.17262378935893674</v>
       </c>
-      <c r="S82" s="37">
+      <c r="S83" s="37">
         <f>S36/S4</f>
         <v>0.23428321616827549</v>
       </c>

--- a/£JOUL.xlsx
+++ b/£JOUL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E53FD4B-EE0C-C240-B3D8-B77B25804C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545DE0CA-7878-4DC5-88F0-D84EC1EB87B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{C3D898C5-A016-4C72-B082-1E1424AE10EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="103">
   <si>
     <t>£JOUL</t>
   </si>
@@ -672,60 +662,60 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1216,54 +1206,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570C7E1B-ADE6-46D7-B76E-B92B72B7FE98}">
   <dimension ref="A2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B5" s="68" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="G5" s="68" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="G5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1275,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1304,7 @@
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1327,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1352,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1381,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1406,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1429,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G13" s="16"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1454,7 +1444,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="G14" s="16"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1469,12 +1459,12 @@
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="68" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
       <c r="G15" s="16"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1489,14 +1479,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="63"/>
       <c r="G16" s="16"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1511,14 +1501,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="63"/>
       <c r="G17" s="16"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1533,12 +1523,12 @@
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
       <c r="G18" s="16"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1553,17 +1543,17 @@
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="59"/>
       <c r="G19" s="16"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1578,7 +1568,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G20" s="16"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1593,7 +1583,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G21" s="16"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -1608,12 +1598,12 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B22" s="68" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
       <c r="G22" s="46">
         <v>44508</v>
       </c>
@@ -1632,14 +1622,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="63"/>
       <c r="G23" s="16"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1654,14 +1644,14 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="62">
         <v>1989</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="63"/>
       <c r="G24" s="16"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1676,10 +1666,10 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
       <c r="G25" s="16"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1694,15 +1684,15 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="60">
         <f>'Financial Model'!K36</f>
         <v>61.878</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="61"/>
       <c r="G26" s="16"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1717,10 +1707,10 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
       <c r="G27" s="16"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1735,7 +1725,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
@@ -1759,14 +1749,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="67"/>
+      <c r="D29" s="65"/>
       <c r="G29" s="16"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1781,7 +1771,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G30" s="16"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1796,7 +1786,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G31" s="16"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -1811,12 +1801,12 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B32" s="68" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
       <c r="G32" s="16"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1831,15 +1821,15 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="70">
         <f>'Financial Model'!K77</f>
         <v>0.20742534761796225</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="71"/>
       <c r="G33" s="16"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1854,15 +1844,15 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="72">
         <f>C8/SUM('Financial Model'!J4:K4)</f>
         <v>4.3754399249653658E-2</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="73"/>
       <c r="G34" s="16"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1877,15 +1867,15 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="70">
         <f>C12/SUM('Financial Model'!J4:K4)</f>
         <v>7.1741801691721258E-2</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="71"/>
       <c r="G35" s="16"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -1900,15 +1890,15 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="74">
         <f>C12/SUM('Financial Model'!J15:K15)</f>
         <v>8.2793743793445529</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="75"/>
       <c r="G36" s="16"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -1923,15 +1913,15 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="70">
         <f>C6/SUM('Financial Model'!J16:K16)</f>
         <v>5.0560966752336345</v>
       </c>
-      <c r="D37" s="57"/>
+      <c r="D37" s="71"/>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1946,23 +1936,23 @@
       <c r="R37" s="14"/>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="75">
+      <c r="C38" s="58">
         <f>'Financial Model'!K81</f>
-        <v>8.8595091558392416E-2</v>
-      </c>
-      <c r="D38" s="72"/>
+        <v>5.1946894769669537E-2</v>
+      </c>
+      <c r="D38" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="G5:S5"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C16:D16"/>
@@ -1970,11 +1960,11 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -1995,31 +1985,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A0F92-CF5D-4546-9777-39819DEC72FB}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomRight" activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="33"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="33"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="33"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="33"/>
-    <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="33"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="33"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="33"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="33"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="33"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>94</v>
       </c>
@@ -2069,7 +2059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="D2" s="31"/>
       <c r="F2" s="31"/>
@@ -2097,7 +2087,7 @@
         <v>44346</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="D3" s="31"/>
       <c r="F3" s="31"/>
@@ -2114,7 +2104,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -2145,7 +2135,7 @@
         <v>199.00700000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2166,7 +2156,7 @@
         <v>101.505</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
@@ -2195,7 +2185,7 @@
         <v>97.50200000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +2206,7 @@
         <v>88.126000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
@@ -2237,7 +2227,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>97</v>
       </c>
@@ -2258,7 +2248,7 @@
         <v>4.1619999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2283,7 +2273,7 @@
         <v>93.941000000000017</v>
       </c>
     </row>
-    <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2312,7 +2302,7 @@
         <v>3.5609999999999928</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2333,7 +2323,7 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,7 +2348,7 @@
         <v>1.9779999999999929</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2379,7 +2369,7 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="15" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2408,7 +2398,7 @@
         <v>0.89299999999999291</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2433,7 +2423,7 @@
         <v>8.1787629563327777E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2444,7 @@
         <v>109.185216</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
@@ -2479,7 +2469,7 @@
         <v>4.2969896440400834E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -2540,7 +2530,7 @@
         <v>0.48994256483440285</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2565,7 +2555,7 @@
         <v>1.789384293014815E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2590,7 +2580,7 @@
         <v>4.4872793419326604E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2615,12 +2605,12 @@
         <v>0.54853387259858644</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
@@ -2643,7 +2633,7 @@
         <v>31.096999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
@@ -2664,7 +2654,7 @@
         <v>27.736999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2685,7 +2675,7 @@
         <v>28.286999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2710,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -2732,7 +2722,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,7 +2747,7 @@
         <v>88.028999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2782,7 +2772,7 @@
         <v>46.624000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2803,7 +2793,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
@@ -2824,7 +2814,7 @@
         <v>14.996</v>
       </c>
     </row>
-    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -2849,7 +2839,7 @@
         <v>17.997</v>
       </c>
     </row>
-    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -2874,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,7 +2885,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2920,10 +2910,10 @@
         <v>173.37099999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2944,7 +2934,7 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2965,7 +2955,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2986,7 +2976,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>71</v>
       </c>
@@ -3011,7 +3001,7 @@
         <v>6.1959999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3032,7 +3022,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3053,7 +3043,7 @@
         <v>2.0259999999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
@@ -3074,7 +3064,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
@@ -3099,7 +3089,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>74</v>
       </c>
@@ -3124,7 +3114,7 @@
         <v>5.6459999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
@@ -3149,7 +3139,7 @@
         <v>90.966999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>71</v>
       </c>
@@ -3174,7 +3164,7 @@
         <v>7.7240000000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,7 +3185,7 @@
         <v>30.451000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
@@ -3216,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
@@ -3237,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>76</v>
       </c>
@@ -3262,7 +3252,7 @@
         <v>129.142</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>77</v>
       </c>
@@ -3283,7 +3273,7 @@
         <v>44.228999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>78</v>
       </c>
@@ -3308,7 +3298,7 @@
         <v>173.37099999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
@@ -3333,7 +3323,7 @@
         <v>44.228999999999985</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>80</v>
       </c>
@@ -3358,7 +3348,7 @@
         <v>0.40508231444081211</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
@@ -3376,7 +3366,7 @@
         <v>0.41550792397838365</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,7 +3385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="39" t="s">
         <v>6</v>
       </c>
@@ -3424,7 +3414,7 @@
         <v>17.997</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="39" t="s">
         <v>7</v>
       </c>
@@ -3453,7 +3443,7 @@
         <v>22.695</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
@@ -3478,7 +3468,7 @@
         <v>-4.6980000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3499,7 +3489,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
@@ -3524,7 +3514,7 @@
         <v>303.53490047999998</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
@@ -3549,8 +3539,8 @@
         <v>308.23290047999996</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A77" s="73">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" s="56">
         <f>AVERAGE(C77:AB77)</f>
         <v>3.9439051022330447</v>
       </c>
@@ -3578,17 +3568,17 @@
         <v>6.8628026968730937</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
@@ -3597,10 +3587,10 @@
         <v>3.3990470378499706</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="74">
+    <row r="81" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="57">
         <f>AVERAGE(C81:AB81)</f>
-        <v>-7.2312314015859455E-2</v>
+        <v>-3.1128082589034309E-2</v>
       </c>
       <c r="B81" s="37" t="s">
         <v>102</v>
@@ -3609,24 +3599,24 @@
       <c r="F81" s="50"/>
       <c r="H81" s="50"/>
       <c r="J81" s="50">
-        <f t="shared" ref="J81:K81" si="21">SUM(I11:J11)/J63</f>
-        <v>8.051278572882048E-2</v>
+        <f>SUM(I11:J11)/(J42-J53)</f>
+        <v>4.3213921654288633E-2</v>
       </c>
       <c r="K81" s="37">
-        <f>SUM(J11:K11)/K63</f>
-        <v>8.8595091558392416E-2</v>
+        <f>SUM(J11:K11)/(K42-K53)</f>
+        <v>5.1946894769669537E-2</v>
       </c>
       <c r="L81" s="50"/>
       <c r="R81" s="37">
-        <f t="shared" ref="R81:S81" si="22">R11/R63</f>
-        <v>-0.53886991907947102</v>
+        <f>R11/(R42-R53)</f>
+        <v>-0.26288706843438397</v>
       </c>
       <c r="S81" s="37">
-        <f>S11/S63</f>
-        <v>8.0512785728820327E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+        <f>S11/(S42-S53)</f>
+        <v>4.3213921654288549E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>99</v>
       </c>
